--- a/app/database/insert_dicts/data/violations_dict.xlsx
+++ b/app/database/insert_dicts/data/violations_dict.xlsx
@@ -927,7 +927,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7 дней</t>
+          <t>7 days</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7 дней</t>
+          <t>7 days</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>7 дней</t>
+          <t>7 days</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>7 дней</t>
+          <t>7 days</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>7 дней</t>
+          <t>7 days</t>
         </is>
       </c>
     </row>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>7 дней</t>
+          <t>7 days</t>
         </is>
       </c>
     </row>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>7 дней</t>
+          <t>7 days</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="J52" s="2" t="inlineStr">
         <is>
-          <t>7 дней</t>
+          <t>7 days</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="J54" s="2" t="inlineStr">
         <is>
-          <t>7 дней</t>
+          <t>7 days</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="J56" s="2" t="inlineStr">
         <is>
-          <t>7 дней</t>
+          <t>7 days</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="J62" s="2" t="inlineStr">
         <is>
-          <t>7 дней</t>
+          <t>7 days</t>
         </is>
       </c>
     </row>
@@ -3151,7 +3151,11 @@
       <c r="I63" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J63" s="2" t="inlineStr"/>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t>5 minutes</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
@@ -3231,7 +3235,11 @@
       <c r="I65" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="J65" s="2" t="inlineStr"/>
+      <c r="J65" s="2" t="inlineStr">
+        <is>
+          <t>5 minutes</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
@@ -3439,7 +3447,7 @@
       </c>
       <c r="J70" s="2" t="inlineStr">
         <is>
-          <t>7 дней</t>
+          <t>7 days</t>
         </is>
       </c>
     </row>
@@ -3691,7 +3699,7 @@
       </c>
       <c r="J76" s="2" t="inlineStr">
         <is>
-          <t>7 дней</t>
+          <t>7 days</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4077,7 @@
       </c>
       <c r="J85" s="2" t="inlineStr">
         <is>
-          <t>7 дней</t>
+          <t>7 days</t>
         </is>
       </c>
     </row>
@@ -4153,7 +4161,7 @@
       </c>
       <c r="J87" s="2" t="inlineStr">
         <is>
-          <t>7 дней</t>
+          <t>7 days</t>
         </is>
       </c>
     </row>
@@ -4321,7 +4329,7 @@
       </c>
       <c r="J91" s="2" t="inlineStr">
         <is>
-          <t>7 дней</t>
+          <t>7 days</t>
         </is>
       </c>
     </row>
@@ -4489,7 +4497,7 @@
       </c>
       <c r="J95" s="2" t="inlineStr">
         <is>
-          <t>7 дней</t>
+          <t>7 days</t>
         </is>
       </c>
     </row>
@@ -4657,7 +4665,7 @@
       </c>
       <c r="J99" s="2" t="inlineStr">
         <is>
-          <t>7 дней</t>
+          <t>7 days</t>
         </is>
       </c>
     </row>
@@ -4825,7 +4833,7 @@
       </c>
       <c r="J103" s="2" t="inlineStr">
         <is>
-          <t>7 дней</t>
+          <t>7 days</t>
         </is>
       </c>
     </row>
@@ -4909,7 +4917,7 @@
       </c>
       <c r="J105" s="2" t="inlineStr">
         <is>
-          <t>7 дней</t>
+          <t>7 days</t>
         </is>
       </c>
     </row>
@@ -4993,7 +5001,7 @@
       </c>
       <c r="J107" s="2" t="inlineStr">
         <is>
-          <t>7 дней</t>
+          <t>7 days</t>
         </is>
       </c>
     </row>

--- a/app/database/insert_dicts/data/violations_dict.xlsx
+++ b/app/database/insert_dicts/data/violations_dict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27716"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27723"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\timosii\my_administrator\app\database\insert_dicts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD3D286-D80B-42E4-9EC9-CD21F2C50D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88E017C-986D-4C54-91DC-673713F57254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="1" r:id="rId1"/>
@@ -1034,21 +1034,21 @@
   <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J112" sqref="J112"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I103" sqref="I103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.6328125" customWidth="1"/>
+    <col min="1" max="1" width="46.5703125" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="69.7265625" customWidth="1"/>
-    <col min="4" max="4" width="46.6328125" customWidth="1"/>
-    <col min="5" max="9" width="8.90625" customWidth="1"/>
-    <col min="10" max="10" width="11.08984375" customWidth="1"/>
+    <col min="3" max="3" width="69.7109375" customWidth="1"/>
+    <col min="4" max="4" width="46.5703125" customWidth="1"/>
+    <col min="5" max="9" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1106,13 +1106,13 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1138,13 +1138,13 @@
         <v>1</v>
       </c>
       <c r="I3" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1170,13 +1170,13 @@
         <v>1</v>
       </c>
       <c r="I4" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -1202,13 +1202,13 @@
         <v>1</v>
       </c>
       <c r="I5" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1298,13 +1298,13 @@
         <v>1</v>
       </c>
       <c r="I8" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -1330,13 +1330,13 @@
         <v>1</v>
       </c>
       <c r="I9" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
@@ -1362,13 +1362,13 @@
         <v>1</v>
       </c>
       <c r="I10" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
@@ -1394,13 +1394,13 @@
         <v>1</v>
       </c>
       <c r="I11" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
@@ -1426,13 +1426,13 @@
         <v>1</v>
       </c>
       <c r="I12" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
@@ -1458,13 +1458,13 @@
         <v>1</v>
       </c>
       <c r="I13" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -1490,13 +1490,13 @@
         <v>1</v>
       </c>
       <c r="I14" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -1522,13 +1522,13 @@
         <v>1</v>
       </c>
       <c r="I15" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -1554,13 +1554,13 @@
         <v>1</v>
       </c>
       <c r="I16" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -1586,13 +1586,13 @@
         <v>1</v>
       </c>
       <c r="I17" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
@@ -1618,13 +1618,13 @@
         <v>1</v>
       </c>
       <c r="I18" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>50</v>
       </c>
@@ -1650,13 +1650,13 @@
         <v>1</v>
       </c>
       <c r="I19" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>53</v>
       </c>
@@ -1682,13 +1682,13 @@
         <v>1</v>
       </c>
       <c r="I20" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>56</v>
       </c>
@@ -1714,13 +1714,13 @@
         <v>1</v>
       </c>
       <c r="I21" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>58</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1778,13 +1778,13 @@
         <v>1</v>
       </c>
       <c r="I23" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
@@ -1810,13 +1810,13 @@
         <v>1</v>
       </c>
       <c r="I24" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>61</v>
       </c>
@@ -1842,13 +1842,13 @@
         <v>1</v>
       </c>
       <c r="I25" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>65</v>
       </c>
@@ -1874,13 +1874,13 @@
         <v>1</v>
       </c>
       <c r="I26" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>67</v>
       </c>
@@ -1906,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="I27" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>69</v>
       </c>
@@ -1938,13 +1938,13 @@
         <v>1</v>
       </c>
       <c r="I28" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>71</v>
       </c>
@@ -1970,13 +1970,13 @@
         <v>1</v>
       </c>
       <c r="I29" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
@@ -2002,13 +2002,13 @@
         <v>1</v>
       </c>
       <c r="I30" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
@@ -2034,13 +2034,13 @@
         <v>1</v>
       </c>
       <c r="I31" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
@@ -2066,13 +2066,13 @@
         <v>1</v>
       </c>
       <c r="I32" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>42</v>
       </c>
@@ -2098,13 +2098,13 @@
         <v>1</v>
       </c>
       <c r="I33" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>73</v>
       </c>
@@ -2130,13 +2130,13 @@
         <v>1</v>
       </c>
       <c r="I34" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>76</v>
       </c>
@@ -2162,13 +2162,13 @@
         <v>1</v>
       </c>
       <c r="I35" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>78</v>
       </c>
@@ -2194,13 +2194,13 @@
         <v>1</v>
       </c>
       <c r="I36" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>80</v>
       </c>
@@ -2226,13 +2226,13 @@
         <v>1</v>
       </c>
       <c r="I37" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>83</v>
       </c>
@@ -2258,13 +2258,13 @@
         <v>1</v>
       </c>
       <c r="I38" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>85</v>
       </c>
@@ -2290,13 +2290,13 @@
         <v>1</v>
       </c>
       <c r="I39" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>87</v>
       </c>
@@ -2322,13 +2322,13 @@
         <v>1</v>
       </c>
       <c r="I40" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>89</v>
       </c>
@@ -2354,13 +2354,13 @@
         <v>1</v>
       </c>
       <c r="I41" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>92</v>
       </c>
@@ -2386,13 +2386,13 @@
         <v>1</v>
       </c>
       <c r="I42" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>94</v>
       </c>
@@ -2418,13 +2418,13 @@
         <v>1</v>
       </c>
       <c r="I43" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>96</v>
       </c>
@@ -2450,13 +2450,13 @@
         <v>1</v>
       </c>
       <c r="I44" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>98</v>
       </c>
@@ -2482,13 +2482,13 @@
         <v>1</v>
       </c>
       <c r="I45" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>100</v>
       </c>
@@ -2514,13 +2514,13 @@
         <v>1</v>
       </c>
       <c r="I46" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>28</v>
       </c>
@@ -2546,13 +2546,13 @@
         <v>1</v>
       </c>
       <c r="I47" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>56</v>
       </c>
@@ -2578,13 +2578,13 @@
         <v>1</v>
       </c>
       <c r="I48" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>58</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>65</v>
       </c>
@@ -2642,13 +2642,13 @@
         <v>1</v>
       </c>
       <c r="I50" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>102</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>31</v>
       </c>
@@ -2706,13 +2706,13 @@
         <v>1</v>
       </c>
       <c r="I52" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>104</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>106</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>35</v>
       </c>
@@ -2802,13 +2802,13 @@
         <v>1</v>
       </c>
       <c r="I55" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>37</v>
       </c>
@@ -2834,13 +2834,13 @@
         <v>1</v>
       </c>
       <c r="I56" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>40</v>
       </c>
@@ -2866,13 +2866,13 @@
         <v>1</v>
       </c>
       <c r="I57" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>42</v>
       </c>
@@ -2898,13 +2898,13 @@
         <v>1</v>
       </c>
       <c r="I58" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>108</v>
       </c>
@@ -2930,13 +2930,13 @@
         <v>1</v>
       </c>
       <c r="I59" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>111</v>
       </c>
@@ -2962,13 +2962,13 @@
         <v>1</v>
       </c>
       <c r="I60" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>113</v>
       </c>
@@ -2994,13 +2994,13 @@
         <v>1</v>
       </c>
       <c r="I61" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>115</v>
       </c>
@@ -3026,13 +3026,13 @@
         <v>1</v>
       </c>
       <c r="I62" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>117</v>
       </c>
@@ -3058,13 +3058,13 @@
         <v>1</v>
       </c>
       <c r="I63" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>119</v>
       </c>
@@ -3090,13 +3090,13 @@
         <v>1</v>
       </c>
       <c r="I64" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>121</v>
       </c>
@@ -3122,13 +3122,13 @@
         <v>1</v>
       </c>
       <c r="I65" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>22</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>24</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>26</v>
       </c>
@@ -3218,13 +3218,13 @@
         <v>1</v>
       </c>
       <c r="I68" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>35</v>
       </c>
@@ -3250,13 +3250,13 @@
         <v>1</v>
       </c>
       <c r="I69" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>37</v>
       </c>
@@ -3282,13 +3282,13 @@
         <v>1</v>
       </c>
       <c r="I70" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>40</v>
       </c>
@@ -3314,13 +3314,13 @@
         <v>1</v>
       </c>
       <c r="I71" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>42</v>
       </c>
@@ -3346,13 +3346,13 @@
         <v>1</v>
       </c>
       <c r="I72" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>124</v>
       </c>
@@ -3378,13 +3378,13 @@
         <v>1</v>
       </c>
       <c r="I73" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>127</v>
       </c>
@@ -3410,13 +3410,13 @@
         <v>1</v>
       </c>
       <c r="I74" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>129</v>
       </c>
@@ -3442,13 +3442,13 @@
         <v>1</v>
       </c>
       <c r="I75" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>131</v>
       </c>
@@ -3474,13 +3474,13 @@
         <v>1</v>
       </c>
       <c r="I76" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>133</v>
       </c>
@@ -3506,13 +3506,13 @@
         <v>1</v>
       </c>
       <c r="I77" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>135</v>
       </c>
@@ -3538,13 +3538,13 @@
         <v>1</v>
       </c>
       <c r="I78" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>137</v>
       </c>
@@ -3570,13 +3570,13 @@
         <v>1</v>
       </c>
       <c r="I79" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>139</v>
       </c>
@@ -3602,13 +3602,13 @@
         <v>1</v>
       </c>
       <c r="I80" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>141</v>
       </c>
@@ -3634,13 +3634,13 @@
         <v>1</v>
       </c>
       <c r="I81" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>143</v>
       </c>
@@ -3666,13 +3666,13 @@
         <v>1</v>
       </c>
       <c r="I82" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>145</v>
       </c>
@@ -3698,13 +3698,13 @@
         <v>1</v>
       </c>
       <c r="I83" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>98</v>
       </c>
@@ -3730,13 +3730,13 @@
         <v>1</v>
       </c>
       <c r="I84" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>147</v>
       </c>
@@ -3762,13 +3762,13 @@
         <v>1</v>
       </c>
       <c r="I85" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>148</v>
       </c>
@@ -3794,13 +3794,13 @@
         <v>1</v>
       </c>
       <c r="I86" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>150</v>
       </c>
@@ -3826,13 +3826,13 @@
         <v>1</v>
       </c>
       <c r="I87" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>152</v>
       </c>
@@ -3858,13 +3858,13 @@
         <v>1</v>
       </c>
       <c r="I88" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>154</v>
       </c>
@@ -3890,13 +3890,13 @@
         <v>1</v>
       </c>
       <c r="I89" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>35</v>
       </c>
@@ -3922,13 +3922,13 @@
         <v>1</v>
       </c>
       <c r="I90" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>37</v>
       </c>
@@ -3954,13 +3954,13 @@
         <v>1</v>
       </c>
       <c r="I91" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>156</v>
       </c>
@@ -3986,13 +3986,13 @@
         <v>1</v>
       </c>
       <c r="I92" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>160</v>
       </c>
@@ -4018,13 +4018,13 @@
         <v>1</v>
       </c>
       <c r="I93" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>162</v>
       </c>
@@ -4050,13 +4050,13 @@
         <v>1</v>
       </c>
       <c r="I94" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>164</v>
       </c>
@@ -4082,13 +4082,13 @@
         <v>1</v>
       </c>
       <c r="I95" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>166</v>
       </c>
@@ -4114,13 +4114,13 @@
         <v>1</v>
       </c>
       <c r="I96" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>168</v>
       </c>
@@ -4146,13 +4146,13 @@
         <v>1</v>
       </c>
       <c r="I97" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>170</v>
       </c>
@@ -4178,13 +4178,13 @@
         <v>1</v>
       </c>
       <c r="I98" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>173</v>
       </c>
@@ -4210,13 +4210,13 @@
         <v>1</v>
       </c>
       <c r="I99" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>175</v>
       </c>
@@ -4242,13 +4242,13 @@
         <v>1</v>
       </c>
       <c r="I100" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>177</v>
       </c>
@@ -4274,13 +4274,13 @@
         <v>1</v>
       </c>
       <c r="I101" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>179</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>181</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>183</v>
       </c>
@@ -4370,13 +4370,13 @@
         <v>1</v>
       </c>
       <c r="I104" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>185</v>
       </c>
@@ -4402,13 +4402,13 @@
         <v>1</v>
       </c>
       <c r="I105" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>187</v>
       </c>
@@ -4434,13 +4434,13 @@
         <v>1</v>
       </c>
       <c r="I106" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>189</v>
       </c>
@@ -4466,13 +4466,13 @@
         <v>1</v>
       </c>
       <c r="I107" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>190</v>
       </c>
@@ -4498,13 +4498,13 @@
         <v>1</v>
       </c>
       <c r="I108" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>193</v>
       </c>
@@ -4530,13 +4530,13 @@
         <v>1</v>
       </c>
       <c r="I109" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>195</v>
       </c>
@@ -4562,13 +4562,13 @@
         <v>1</v>
       </c>
       <c r="I110" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>197</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>1</v>
       </c>
       <c r="I111" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>44</v>

--- a/app/database/insert_dicts/data/violations_dict.xlsx
+++ b/app/database/insert_dicts/data/violations_dict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\timosii\my_administrator\app\database\insert_dicts\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SimashevTI\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A849DF-3A8B-41F3-9D72-38FB87D1DEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF28882B-6890-400C-A12F-DF67327C4748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="199">
   <si>
     <t>violation_name</t>
   </si>
@@ -68,9 +66,6 @@
     <t>time_to_correct</t>
   </si>
   <si>
-    <t>Загрязнения во входной группе отсутствуют</t>
-  </si>
-  <si>
     <t>Входная группа</t>
   </si>
   <si>
@@ -80,387 +75,60 @@
     <t>30 minutes</t>
   </si>
   <si>
-    <t>Мусор, посторонние предметы во входной группе отсутствуют</t>
-  </si>
-  <si>
-    <t>Инфоматы чистые</t>
-  </si>
-  <si>
-    <t>Стойка инфомата без потёков, нет пыли на верхней крышки, нет многослойных следов от прикосновения к экрану.</t>
-  </si>
-  <si>
-    <t>Инфоматы в исправном состоянии</t>
-  </si>
-  <si>
     <t>Работоспособность оборудования</t>
   </si>
   <si>
-    <t>Инфомат включен в сеть, нет технологичных окон, пациент может самостоятельно пользоваться инфоматом. Тачскрин реагирует на прикосновение без усилий. Бумага в инфомате в наличии, на экране инфомата нет сообщений о замене бумаги.</t>
-  </si>
-  <si>
-    <t>Автоматы с бахилами чистые (при наличии)</t>
-  </si>
-  <si>
-    <t>Бахиломаты (корзины) без пятен, следов грязи, отсутствуют подтеки.</t>
-  </si>
-  <si>
-    <t>Автоматы с бахилами в исправном состоянии (при наличии)</t>
-  </si>
-  <si>
-    <t>Бахиломаты в исправном состоянии, подключены к сети, смена кассет с чистыми бахилами производится своевременно</t>
-  </si>
-  <si>
-    <t>Корзины с бахилами чистые, в удовлетворительном состоянии, не переполнены</t>
-  </si>
-  <si>
-    <t>Не нарушена целостность покрытия (стёрта краска, царапины). Емкости без трещин. Не используются уличные урны, вёдра, корзины для бумаг.При наличии таблички на корзине "чистые бахилы" или "грязные бахилы" - табличка чистая, без заломленных и нарушенных краев, пятен, подтеков, следов грязи и воды. Из корзин не торчат бахилы и не вываливаются при выбрасывании.</t>
-  </si>
-  <si>
     <t>Наличие расходных материалов</t>
   </si>
   <si>
     <t>Дзинфицирующие средства всегда в плотных флаконах. В прозрачных дозаторах наличие можно оценить визуально. В непрозрачных дозаторах администратор подносит руки или нажимает для получения порции дез. средства</t>
   </si>
   <si>
-    <t>Объявления выполнены в едином стиле, целостность объявлений не нарушена</t>
-  </si>
-  <si>
     <t>Наличие раздаточных материалов/состояние информационных материалов</t>
   </si>
   <si>
-    <t>Объявления, напечатаны по единому стандарту, расположены в местах, предназначенных для этого (на стойках информации, в настенных карманах или буклетницах). Отсутствуют рукописные, мятые, рваные/надорванные, грязные объявления, прикрепленные подручными средствами к столам, стенам, дверям, стеклам здания МО.</t>
-  </si>
-  <si>
     <t>7 days</t>
   </si>
   <si>
-    <t>Поверхности стен чистые, отсутствуют разводы</t>
-  </si>
-  <si>
-    <t>Стены чистые, отсутствуют грязные разводы, пятна, подтеки, следы от снятых объявлений (скотч, клей).</t>
-  </si>
-  <si>
-    <t>Целостность покрытия стен не нарушена (потертости, трещины, повреждения, сколы краски, отслойка штукатурки отсутствуют)</t>
-  </si>
-  <si>
     <t>Состояние мебели/помещений</t>
   </si>
   <si>
-    <t>На стенах отсутствуют потертости, трещины, повреждения, сколы краски и отслойка штукатурки. Отсутствуют следы от стройматериалов (от гвоздей, шурупов и т.п.).</t>
-  </si>
-  <si>
-    <t>Целостность пломб на технических дверях не нарушена</t>
-  </si>
-  <si>
-    <t>Пломбы не повреждены, приклеены аккуратно на каждую техническую дверь - края пломбы плотно прилегают к дверям, под последней пломбой отсутствуют следы старой пломбы, ее фрагменты, а также следы клея/скотча.</t>
-  </si>
-  <si>
-    <t>Провода убраны в соответствующую нишу</t>
-  </si>
-  <si>
-    <t>Провода от тач-панели, инфоматов, рециркуляторы, телевизоры, аккуратно скрыты или убраны в соответствующие ниши.</t>
-  </si>
-  <si>
     <t>1 day</t>
   </si>
   <si>
     <t>Зона ресепшн</t>
   </si>
   <si>
-    <t>Мебель чистая, в исправном состоянии состоянии</t>
-  </si>
-  <si>
-    <t>Мебель без повреждений</t>
-  </si>
-  <si>
-    <t>Мебель имеет следы экспулатации, на мебели нет трещин, сколов, повреждений краски и обивки.</t>
-  </si>
-  <si>
-    <t>Ручки и блоки для заметок в зоне доступа посетителей в наличии</t>
-  </si>
-  <si>
-    <t>Ручки со стержнями, не потекшие, пишущие. Кубарики с белыми чистыми листами для заметок, не менее половины кубарика заполнено.</t>
-  </si>
-  <si>
     <t>10 minutes</t>
   </si>
   <si>
-    <t>Внешний вид сотрудников МО соответствует требованиям (бейдж прикреплен справа, форма соответствует дресс-коду)</t>
-  </si>
-  <si>
     <t>Прочая проблематика</t>
   </si>
   <si>
-    <t>Табло электронной очереди включено, отображает актуальную информацию</t>
-  </si>
-  <si>
-    <t>Табло подключено к электросети. На нем видны: актуальные дата, кабинеты и номера талонов пациентов. Отображается актуальна ситуация: какой талон на приеме, какой следующий. Отсутствует неактуальная информация.</t>
-  </si>
-  <si>
-    <t>Врач вызывает пациентов посредством электронной очереди (при наличии)</t>
-  </si>
-  <si>
     <t>Системные вопросы, поступающие от посетителей, выходящие за рамки действующих алгоритмов работы</t>
   </si>
   <si>
-    <t>Если МО подключила кабинет к электронной очереди и врач для приглашения пациента в кабинет, используя электронную очередь.</t>
-  </si>
-  <si>
-    <t>При наличии пациента, нуждающегося в помощи, сотрудник за стойкой информации присутствует</t>
-  </si>
-  <si>
     <t>Отсутствие мед. персонала на рабочем месте во время рабочего графика</t>
   </si>
   <si>
-    <t>За стойкой информации есть сотрудник МО, который может выполнить весь функционал, возложенный на стойку информации. В случае, если сотрудник МО отошел, то во время его отсутствия ожидание пациента помощи сотрудника МО не превышает 5 минут.</t>
-  </si>
-  <si>
     <t>5 minutes</t>
   </si>
   <si>
-    <t>Touch-панель чистая</t>
-  </si>
-  <si>
-    <t>Тач-панель чистая, без пятен, следов грязи, отсутствуют подтеки.</t>
-  </si>
-  <si>
-    <t>Touch-панель в исправном состоянии, отображает актуальную информацию, доступна для посетителей</t>
-  </si>
-  <si>
-    <t>Тач-панель расположена в доступе пациентов, подгружен сайт нового стандарта или сайт поликлиники. Тач-панель технически исправна.</t>
-  </si>
-  <si>
-    <t>Загрязнения в зоне ресепшн отсутствуют</t>
-  </si>
-  <si>
-    <t>Мусор, посторонние предметы в зоне ресепшн отсутствуют</t>
-  </si>
-  <si>
-    <t>Загрязнения в зоне медицинского поста отсутствуют</t>
-  </si>
-  <si>
     <t>Медицинский пост</t>
   </si>
   <si>
-    <t>Чистый пол в зоне медицинского поста. Стойка медицинского поста без разводов, грязи и пыли.</t>
-  </si>
-  <si>
-    <t>Мусор, посторонние предметы в зоне медицинского поста отсутствуют</t>
-  </si>
-  <si>
-    <t>Сотрудник на медицинском посту присутствует</t>
-  </si>
-  <si>
-    <t>Сотрудник МО, который постоянно находится на рабочем месте.</t>
-  </si>
-  <si>
-    <t>Загрязнения в зоне комфортного пребывания отсутствуют</t>
-  </si>
-  <si>
     <t>Зона комфортного пребывания</t>
   </si>
   <si>
-    <t>Пол в зоне комфортного пребывания без разводов и грязи. Отсутствует грязь в углах. Диваны и столы без пыли и грязи.</t>
-  </si>
-  <si>
-    <t>Мусор, посторонние предметы в зоне комфортного пребывания отсутствуют</t>
-  </si>
-  <si>
-    <t>В зоне комфортного пребывания отсутствует мусор (использованные стаканчики, мятые лифлеты, бумажки, использованные маски/бахилы).</t>
-  </si>
-  <si>
-    <t>Урны для мусора чистые, в удовлетворительном состоянии, не переполнены</t>
-  </si>
-  <si>
-    <t>Урны для мусора находятся в зоне видимости, крышка урны закрыта, мусор из нее не торчит и не вываливается.</t>
-  </si>
-  <si>
-    <t>Пурифайеры/кулеры чистые</t>
-  </si>
-  <si>
-    <t>Пурифайеры и кулеры без пятен, следов грязи, отсутствуют подтеки.</t>
-  </si>
-  <si>
-    <t>Пурифайеры/кулеры с водой и стаканами в исправном состоянии</t>
-  </si>
-  <si>
-    <t>При нажатии на кнопку/кран можно налить воды. Без нажатия вода просто так не течет. Стаканы в наличии (держатель для стаканов заполнен не менее четверти) и расположены в держателе на кулере/пурифайере.</t>
-  </si>
-  <si>
     <t>1 hour</t>
   </si>
   <si>
-    <t>Телевизоры включены, в исправном состоянии (технологические окна отсутствуют, в ДГП включены мультфильмы)</t>
-  </si>
-  <si>
-    <t>Телевизоры подключены к сети, нет технологических окон (ошибка или иные надписи, имеющие информацию о неполадках). На телевизорах демонстрируются информационные видеоролики с социальной рекламой, в ДГП мультфильмы.</t>
-  </si>
-  <si>
-    <t>Детская мебель аккуратно расставлена, в исправном состоянии (для ДГП)</t>
-  </si>
-  <si>
-    <t>Детская мебель без повреждений (целостность покрытия не нарушена)</t>
-  </si>
-  <si>
-    <t>Детские столы и стулья не имеют повреждений, царапин, трещин и сколов.</t>
-  </si>
-  <si>
-    <t>Пеленальные столики чистые, в исправном состоянии (для ДГП)</t>
-  </si>
-  <si>
-    <t>Столики в исправном состоянии, стоят устойчиво на поверхности, отсутствуют загрязнения, под матрацем отсутствует мусор и пыль.</t>
-  </si>
-  <si>
-    <t>Пеленальные столики без сколов/трещин. Подстилка на пеленальной поверхности без повреждений, молния скрыта.</t>
-  </si>
-  <si>
-    <t>Touch-панель в исправном состоянии, отображает актуальную информацию, доступна для посетителей (при наличии)</t>
-  </si>
-  <si>
-    <t>Тач-панель включена и в работоспособном состоянии. На панели нет технологических окон, актуальное время, загружен опрос и сайт поликлиники с графиком приема врачей.</t>
-  </si>
-  <si>
-    <t>Вендинговые автоматы чистые, без пятен, следов грязи, отсутствуют подтеки.</t>
-  </si>
-  <si>
-    <t>Вендинговые аппараты в работоспособном состоянии (при наличии)</t>
-  </si>
-  <si>
-    <t>Вендинговые аппараты включены и в работоспособном состоянии. Есть возможность произвести оплату как наличным, так и безналичным способом. Вендинговый аппарат выдает сдачу.</t>
-  </si>
-  <si>
-    <t>Поверхность пола, плинтуса чистые, без разводов</t>
-  </si>
-  <si>
     <t>Коридоры</t>
   </si>
   <si>
-    <t>Полы чистые, нет лишних предметов (бахилы, талоны, коробки) и сезонных загрязнений (реагенты, вода). Коврики (при наличии) также чистые.</t>
-  </si>
-  <si>
-    <t>Лестничные пролеты чистые</t>
-  </si>
-  <si>
-    <t>Лестничные пролеты чистые, нет лишних предметов (бахилы, талоны, коробки) и сезонных загрязнений (реагенты, вода). Коврики (при наличии) также чистые.</t>
-  </si>
-  <si>
-    <t>Отсутствуют посторонние предметы, мешающие передвижению пациентов по лестницам, в коридорах</t>
-  </si>
-  <si>
-    <t>Отсутствие мебели\иных предметов (коробки, тележки и пр.). Свободное перемещение пациентов по лестницам и коридорам в МО.</t>
-  </si>
-  <si>
-    <t>Навигация по полилкинике актуальна, находится в зоне видимости посетителей, читаема, в удовлетворительном состоянии</t>
-  </si>
-  <si>
-    <t>Навигация без повреждений (трещин и сколов), читаема, в свободном доступе, не огорожена мебелью. Верно указаны кабинеты и маршрутизация к ним.</t>
-  </si>
-  <si>
-    <t>Свободное перемещение сотрудников и пациентов между зонами поликлиники со стандартным приемом и зоной ОРВИ не осуществляется</t>
-  </si>
-  <si>
-    <t>Маршруты эвакуации свободны, посторонние предметы отсутствуют</t>
-  </si>
-  <si>
-    <t>Двери и проходы не опечатаны, не перекрыты, свободный проход.</t>
-  </si>
-  <si>
-    <t>Пациенты размещены на посадочных местах в зонах комфортного ожидания, стоящие пациенты отсутствуют</t>
-  </si>
-  <si>
-    <t>Пациентам хватает места, есть возможность присесть и ожидать прием. Отсутствуют пациенты, которые ожидают стоя у заполненных банкеток.</t>
-  </si>
-  <si>
-    <t>Санитарное состояние туалетной комнаты удовлетворительное (мусорные корзины не переполнены, полы чистые, отсутсвуют загрязнения)</t>
-  </si>
-  <si>
     <t>Туалетная комната</t>
   </si>
   <si>
-    <t>Отсутствуют разводы грязи, пыли на стенах и на полу. Мусорные корзины своевременно освобождаются, мусор не торчит из-под крышки.</t>
-  </si>
-  <si>
-    <t>График уборки туалетных комнат в наличии, актуален, заполняется сотрудниками клининга своевременно</t>
-  </si>
-  <si>
-    <t>График уборки размещен во всех туалетных комнатах, содержит необходимую информацию (ФИО ответственного, дату, время проведения уборки, отметка о проведенной уборке в виде подписи ответственного), дата на графике указана актуальная, отметка об уборке заполняется в запланированное графиком время после ее проведения.</t>
-  </si>
-  <si>
-    <t>Раковина чистая</t>
-  </si>
-  <si>
-    <t>На раковине отсутствуют грязные разводы, пыль.</t>
-  </si>
-  <si>
-    <t>Раковина в удовлетворительном состоянии: видимые повреждения, сколы и трещины отсутствуют</t>
-  </si>
-  <si>
-    <t>Раковина в исправном (рабочем) состоянии. На раковине отсутствуют царапины, трещины, сколы.</t>
-  </si>
-  <si>
-    <t>Унитаз чистый</t>
-  </si>
-  <si>
-    <t>На унитазе отсутствуют грязные разводы, пятна, подтеки.</t>
-  </si>
-  <si>
-    <t>Унитаз в удовлетворительном состоянии: видимые повреждения, сколы и трещины отсутствуют</t>
-  </si>
-  <si>
-    <t>Унитаз в исправном (рабочем) состоянии. На унитазе отсутствуют царапины, трещины, сколы. При нажатии на кнопку слива вода сливается.</t>
-  </si>
-  <si>
-    <t>Крючки в наличии и исправном состоянии в каждой уборной.</t>
-  </si>
-  <si>
-    <t>Крючки для верхней одежды и сумок без повреждений</t>
-  </si>
-  <si>
-    <t>Крючки висят ровно, без повреждений и царапин.</t>
-  </si>
-  <si>
-    <t>Держатели/диспенсеры для туалетной бумаги, мыла в исправном состоянии</t>
-  </si>
-  <si>
-    <t>В каждой уборной есть держатель/диспансер с туалетной бумагой. Без видимых повреждений.</t>
-  </si>
-  <si>
-    <t>Диспенсер с бумажными полотенцами/сушилка для рук в наличии, в исправном состоянии</t>
-  </si>
-  <si>
-    <t>В каждой уборной в наличии бумажные полотенца в диспансере/сушилка для рук в работоспособном состоянии, включена в розетку.</t>
-  </si>
-  <si>
-    <t>Мыло, туалетная бумага, бумажные полотенца в диспенсере в наличии</t>
-  </si>
-  <si>
-    <t>В каждой уборной есть мыло, туалетная бумага и бумажные полотенца</t>
-  </si>
-  <si>
-    <t>Пеленальные столики без повреждений (для ДГП)</t>
-  </si>
-  <si>
-    <t>Опорный поручень в туалетах для ММГ в наличии в исправном состоянии</t>
-  </si>
-  <si>
-    <t>Опорный поручень в туалетах для ММГ без повреждений</t>
-  </si>
-  <si>
-    <t>Опорный поручень без сколов и вмятин. Цвет покрытия однороден (нержавейка или краска).</t>
-  </si>
-  <si>
-    <t>Крючки для верхней одежды, костылей и сумок в наличии в каждой уборной для ММГ</t>
-  </si>
-  <si>
-    <t>Крючки для верхней одежды, костылей и сумок без повреждений в каждой уборной для ММГ</t>
-  </si>
-  <si>
-    <t>Крючки для верхней одежды, костылей и сумок в каждой уборной для ММГ без повреждений (сколов/трещин).</t>
-  </si>
-  <si>
-    <t>Контрастные ленты на краевых ступенях внутренних лестниц в наличии, плотно приклеены к поверхности</t>
-  </si>
-  <si>
     <t>Доступная среда</t>
   </si>
   <si>
@@ -470,172 +138,499 @@
     <t>Контрастные ленты размещены на краевых ступенях лестничных пролетов (первая и последняя ступени пролета), лента плотно прилегает к поверхности ступени, выполнены контрастным цветом по отношению к ступеням (желтый, черный).</t>
   </si>
   <si>
-    <t>Целостность контрастных лент на краевых ступенях внутренних лестниц не нарушена, нет повреждений</t>
-  </si>
-  <si>
-    <t>Контрастные ленты размещены на краевых ступенях целые, нет отслоений от поверхности ступеней, отсутствуют потертости, нет повреждений.</t>
-  </si>
-  <si>
-    <t>Знак безопасности "Желтый круг" в наличии, читаем, расположение - на уровне глаз</t>
-  </si>
-  <si>
-    <t>Знак безопасности "Желтый круг" расположен на всех прозрачных вертикальных поверхностях (прозрачные двери, прозрачные перегородки), его целостность не нарушена, отсутствуют отслойки от поверхности, потертости. Знак расположен на уровне глаз.</t>
-  </si>
-  <si>
-    <t>Кнопка вызова специалиста для ММГ в наличии, в исправном состоянии</t>
-  </si>
-  <si>
-    <t>Кнопка вызова для ММГ есть, расположена во всех зонах ММГ, работает, подает сигнал на пост охраны. В туалетных комнатах кнопка расположена рядом с унитазом, не повреждена, шнур в наличии. При нажатии сотрудник поликлиники реагирует.</t>
-  </si>
-  <si>
-    <t>Загрязнения в зоне МГН отсутствуют</t>
-  </si>
-  <si>
-    <t>В зоне МГН чисто, нет следов грязи.</t>
-  </si>
-  <si>
-    <t>Мусор, посторонние предметы в зоне МГН отсутствуют</t>
-  </si>
-  <si>
-    <t>В зоне МГН отсутствуют посторонние предметы (инвентарь сотрудников клининга, мебель, личные вещи, технические тележки, коробки и т.п.), отсутствует мусор.</t>
-  </si>
-  <si>
-    <t>Освещение исправно</t>
-  </si>
-  <si>
     <t>Инженерные системы</t>
   </si>
   <si>
-    <t>Работают все лампы и выключатели.</t>
-  </si>
-  <si>
-    <t>Отопление исправно, нет механических повреждений</t>
-  </si>
-  <si>
-    <t>Целостность труб и наличие тепла.</t>
-  </si>
-  <si>
-    <t>Система водоснабжения и водоотведения: налажено холодное и горячее водоснабжение</t>
-  </si>
-  <si>
-    <t>Отсутствуют видимые течи из систем водоснабжения и водоотведения</t>
-  </si>
-  <si>
-    <t>Отсутствуют потеки на трубах, нет протечки из кранов и труб.</t>
-  </si>
-  <si>
-    <t>Лифт чистый (при наличии)</t>
-  </si>
-  <si>
-    <t>Лифт в исправном состоянии (при наличии)</t>
-  </si>
-  <si>
-    <t>Лифт имеется, в рабочем состоянии. В случае если в здании нет лифта, блок пропускаем.</t>
-  </si>
-  <si>
-    <t>Нарушением считается наличие повреждений. Отсутствуют ржавчина, царапины, сколы.</t>
-  </si>
-  <si>
-    <t>Кондиционеры чистые и в исправном состоянии</t>
-  </si>
-  <si>
-    <t>Кондиционеры без повреждений</t>
-  </si>
-  <si>
-    <t>Жалюзи чистые, в исправном состоянии</t>
-  </si>
-  <si>
     <t>Окна, жалюзи</t>
   </si>
   <si>
-    <t>Отсутствием проблематики считается наличие жалюзи в исправном состоянии, с работающим механизмом поднятия и спуска, исправным креплением, целыми частями, без отсутствующих блоков. На жалюзи нет видимых загрязнений, пыли, разводов и пятен.</t>
-  </si>
-  <si>
-    <t>Жалюзи без повреждений</t>
-  </si>
-  <si>
-    <t>На жалюзи отсутствуют трещины, потертости, сколы.</t>
-  </si>
-  <si>
-    <t>Окна чистые и в исправном состоянии</t>
-  </si>
-  <si>
-    <t>Окна в исправном состоянии. Отсутствует пыль, загрязнения и подтеки, оставшиеся после влажной уборки, признаки незавершенных ремонтных работ (остатки клея, строительная пыль.</t>
-  </si>
-  <si>
-    <t>Окна без повреждений</t>
-  </si>
-  <si>
     <t>Нарушением считается наличие на окнах и рамах трещин, царапин, неаккуратные швы уплотнителя.</t>
   </si>
   <si>
-    <t>Дезинфицирующие средства в наличии</t>
-  </si>
-  <si>
-    <t>Вендинговые автоматы чистые (при наличии)</t>
-  </si>
-  <si>
-    <t>Крючки для верхней одежды и сумок в наличии в каждой уборной</t>
-  </si>
-  <si>
-    <t>Тепловая завеса чистая и в исправном состоянии</t>
-  </si>
-  <si>
-    <t>Тепловая завеса без повреждений</t>
-  </si>
-  <si>
-    <t>Чистый пол во входной группе. Нет сезонного мусора (листья, реагенты), Ковры на входе чистые, без разводов, грязи, отсутствует реагент.</t>
-  </si>
-  <si>
-    <t>Нет мусора, посторонних предметов (коробки, пакеты, и т.п.). Отсутствуют бахилы на полу.</t>
-  </si>
-  <si>
-    <t>Мебель чистая, без пятен и загрязнений. Мебель в работоспособном и исправном состоянии. Все ножки мебели присутствуют.</t>
-  </si>
-  <si>
     <t>Цвет жилета (синий, голубой), синие брюки Боско, белые кеды. Исключена темная обувь, шлепанцы, тапки, туфли на каблуках, кроксы. Волосы аккуратно собраны, без крупных заколок, цветных резинок. Крупные блестящие украшения отсутствуют, макияж и маникюр в спокойных тонах. Рубашка под жилетом белая. Исключены футболки, прозрачные блузки. Шейный платок повязан, бейдж в наличии, на противоположной стороне от нашивки.</t>
   </si>
   <si>
-    <t>Чистый пол в зоне ресепшн. Нет сезонного мусора (листья, реагенты), Ковры на входе чистые, без разводов, грязи, отсутствует реагент.</t>
-  </si>
-  <si>
-    <t>В зоне ресепшн нет мусора, посторонних предметов (коробки, пакеты, и т.п.). Отсутствуют бахилы на полу.</t>
-  </si>
-  <si>
-    <t>Нет мусора, посторонних предметов (коробки, пакеты, и т.п.) в зоне медицинского поста. Отсутствуют бахилы на полу.</t>
-  </si>
-  <si>
-    <t>Детские столы и стулья в исправном состоянии, все детали прочно закреплены, не болтаются и мебель устойчива при нагрузке. Стулья аккуратно расставлены только в том случае, если не используются детьми.</t>
-  </si>
-  <si>
-    <t>Присутствует отдельный вход в зону ОРВИ. Если зона огорожена ширмой, перемещение сотрудников и пациентов между зонами отсутствует. Потоки пациентов с признаками ОРВИ и без признаков ОРВИ не смешиваются.</t>
-  </si>
-  <si>
-    <t>Бахиломаты (корзины) без пятен, следов грязи, отсутствуют подтеки. Корзины с бахилами есть у каждого режимного кабинета, чистые бахилы выложены в корзины.</t>
-  </si>
-  <si>
-    <t>Опорный поручень в наличии в каждой уборной, и прочно прикреплен к полу и стене.</t>
-  </si>
-  <si>
-    <t>Крючки для верхней одежды и сумок в наличии в каждой уборной для ММГ. Держатель для костылей имеет ярко-желтое основание и информацию шрифтом Брайля. Установлен рядом с унитазом. Без видимых повреждений.</t>
-  </si>
-  <si>
-    <t>В туалетах есть горячая и холодная вода имеется возможность настройки при сенсорном оборудовании крана.</t>
-  </si>
-  <si>
-    <t>В лифте чисто, зеркала стены, объявления с информацией чистые без повреждений и многослойных отпечатков пальцев, кнопки в рабочем состоянии, имеется звуковое сопровождение для ММГ в лифтах для их перевозки.</t>
-  </si>
-  <si>
-    <t>Тепловая завеса в исправном и работоспособном состоянии. Отсутствует пыль, загрязнения на тепловой завесе, подтеки, оставшиеся после влажной уборки.</t>
-  </si>
-  <si>
-    <t>Кондиционеры в исправном и работоспособном состоянии. Отсутствует пыль, загрязнения на кондиционерах, подтеки, оставшиеся после влажной уборки.</t>
-  </si>
-  <si>
     <t>True</t>
   </si>
   <si>
     <t>False</t>
+  </si>
+  <si>
+    <t>Загрязнения во входной группе</t>
+  </si>
+  <si>
+    <t>Мусор, посторонние предметы во входной группе</t>
+  </si>
+  <si>
+    <t>Инфоматы в неисправном состоянии</t>
+  </si>
+  <si>
+    <t>Автоматы с бахилами грязные (при наличии)</t>
+  </si>
+  <si>
+    <t>Автоматы с бахилами в неисправном состоянии (при наличии)</t>
+  </si>
+  <si>
+    <t>Нарушена целостность покрытия стен (потертости, трещины, повреждения, сколы краски, отслойка штукатурки)</t>
+  </si>
+  <si>
+    <t>Нарушена целостность пломб на технических дверях</t>
+  </si>
+  <si>
+    <t>Провода не убраны в соответствующую нишу</t>
+  </si>
+  <si>
+    <t>Поверхность инфомата грязная</t>
+  </si>
+  <si>
+    <t>Мебель грязная, в неисправном состоянии</t>
+  </si>
+  <si>
+    <t>Мебель повреждена</t>
+  </si>
+  <si>
+    <t>Внешний вид сотрудников МО не соответствует требованиям (бейдж прикреплен справа, форма соответствует дресс-коду)</t>
+  </si>
+  <si>
+    <t>Табло электронной очереди выключено, не отображает актуальную информацию</t>
+  </si>
+  <si>
+    <t>Врач не вызывает пациентов посредством электронной очереди (при наличии)</t>
+  </si>
+  <si>
+    <t>Дезинфицирующие средства отсутствуют</t>
+  </si>
+  <si>
+    <t>Сотрудник за стойкой информации отсутствует, при наличии пациента, нуждающегося в помощи</t>
+  </si>
+  <si>
+    <t>Touch-панель грязная</t>
+  </si>
+  <si>
+    <t>Touch-панель в неисправном состоянии, не отображает актуальную информацию, недоступна для посетителей</t>
+  </si>
+  <si>
+    <t>Загрязнения в зоне ресепшн</t>
+  </si>
+  <si>
+    <t>Мусор, посторонние предметы в зоне ресепшн</t>
+  </si>
+  <si>
+    <t>Загрязнения в зоне медицинского поста</t>
+  </si>
+  <si>
+    <t>Мусор, посторонние предметы в зоне медицинского поста</t>
+  </si>
+  <si>
+    <t>Загрязнения в зоне комфортного пребывания</t>
+  </si>
+  <si>
+    <t>Мусор, посторонние предметы в зоне комфортного пребывания</t>
+  </si>
+  <si>
+    <t>Сотрудник на медицинском мосту отсутствует</t>
+  </si>
+  <si>
+    <t>Урны для мусора грязные, в неудовлетворительном состоянии, переполнены</t>
+  </si>
+  <si>
+    <t>Пурифайеры/кулеры грязные</t>
+  </si>
+  <si>
+    <t>Пурифайеры/кулеры с водой и стаканами в неисправном состоянии</t>
+  </si>
+  <si>
+    <t>Телевизоры выключены, в неисправном состоянии (технологические окна отсутствуют, в ДГП включены мультфильмы)</t>
+  </si>
+  <si>
+    <t>Детская мебель расставлена неаккуратно, в неисправном состоянии (для ДГП)</t>
+  </si>
+  <si>
+    <t>Детская мебель с повреждениями (целостность покрытия нарушена)</t>
+  </si>
+  <si>
+    <t>Пеленальные столики грязные, в неисправном состоянии (для ДГП)</t>
+  </si>
+  <si>
+    <t>Пеленальные столики повреждены (для ДГП)</t>
+  </si>
+  <si>
+    <t>Вендинговые автоматы грязные (при наличии)</t>
+  </si>
+  <si>
+    <t>Вендинговые аппараты в неработоспособном состоянии (при наличии)</t>
+  </si>
+  <si>
+    <t>Поверхность пола, плинтуса грязные, с разводами</t>
+  </si>
+  <si>
+    <t>Лестничные пролеты грязные</t>
+  </si>
+  <si>
+    <t>Навигация по полилкинике неактуальна, не находится в зоне видимости посетителей, нечитаемая, в неудовлетворительном состоянии</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Осуществляется свободное перемещение сотрудников и пациентов между зонами поликлиники со стандартным приемом и зоной ОРВИ </t>
+  </si>
+  <si>
+    <t>Маршруты эвакуации несвободны, присутствуют посторонние предметы</t>
+  </si>
+  <si>
+    <t>Пациенты не размещены на посадочных местах в зонах комфортного ожидания, есть стоящие пациенты</t>
+  </si>
+  <si>
+    <t>Санитарное состояние туалетной комнаты неудовлетворительное (мусорные корзины переполнены, полы грязные, присутствуют загрязнения)</t>
+  </si>
+  <si>
+    <t>Раковина грязная</t>
+  </si>
+  <si>
+    <t>Раковина в неудовлетворительном состоянии: видимые повреждения, сколы и трещины</t>
+  </si>
+  <si>
+    <t>График уборки туалетных комнат отсутствует, неактуален, не заполняется сотрудниками клининга своевременно</t>
+  </si>
+  <si>
+    <t>Унитаз грязный</t>
+  </si>
+  <si>
+    <t>Унитаз в неудовлетворительном состоянии: видимые повреждения, сколы и трещины</t>
+  </si>
+  <si>
+    <t>Крючки для верхней одежды и сумок отсутствуют в каждой уборной</t>
+  </si>
+  <si>
+    <t>Крючки для верхней одежды и сумок повреждены</t>
+  </si>
+  <si>
+    <t>Держатели/диспенсеры для туалетной бумаги, мыла в неисправном состоянии</t>
+  </si>
+  <si>
+    <t>Диспенсер с бумажными полотенцами/сушилка для рук отсутствуют, в неисправном состоянии</t>
+  </si>
+  <si>
+    <t>Мыло, туалетная бумага, бумажные полотенца в диспенсере отсутствуют</t>
+  </si>
+  <si>
+    <t>Опорный поручень в туалетах для ММГ отсутствует, в неисправном состоянии</t>
+  </si>
+  <si>
+    <t>Опорный поручень в туалетах для ММГ с повреждениями</t>
+  </si>
+  <si>
+    <t>Крючки для верхней одежды, костылей и сумок отсутствуют в каждой уборной для ММГ</t>
+  </si>
+  <si>
+    <t>Крючки для верхней одежды, костылей и сумок с повреждениями в каждой уборной для ММГ</t>
+  </si>
+  <si>
+    <t>Знак безопасности "Желтый круг" отсутствует, читаем, расположение - на уровне глаз</t>
+  </si>
+  <si>
+    <t>Кнопка вызова специалиста для ММГ отсутствует, в неисправном состоянии</t>
+  </si>
+  <si>
+    <t>Загрязнения в зоне МГН</t>
+  </si>
+  <si>
+    <t>Мусор, посторонние предметы в зоне МГН</t>
+  </si>
+  <si>
+    <t>Освещение неисправно</t>
+  </si>
+  <si>
+    <t>Отопление неисправно, есть механические повреждения</t>
+  </si>
+  <si>
+    <t>Система водоснабжения и водоотведения: не налажено холодное и горячее водоснабжение</t>
+  </si>
+  <si>
+    <t>Присутствуют видимые течи из систем водоснабжения и водоотведения</t>
+  </si>
+  <si>
+    <t>Лифтгрязные (при наличии)</t>
+  </si>
+  <si>
+    <t>Лифт в неисправном состоянии (при наличии)</t>
+  </si>
+  <si>
+    <t>Тепловая завеса грязная и в неисправном состоянии</t>
+  </si>
+  <si>
+    <t>Тепловая завеса с повреждениями</t>
+  </si>
+  <si>
+    <t>Кондиционеры грязные и в неисправном состоянии</t>
+  </si>
+  <si>
+    <t>Кондиционеры с повреждениями</t>
+  </si>
+  <si>
+    <t>Жалюзи грязные, в неисправном состоянии</t>
+  </si>
+  <si>
+    <t>Окна грязные, в неисправном состоянии</t>
+  </si>
+  <si>
+    <t>Жалюзи с повреждениями</t>
+  </si>
+  <si>
+    <t>Окна с повреждениями</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ручки и блоки для заметок отсутствуют в зоне доступа посетителей </t>
+  </si>
+  <si>
+    <t>Объявления не выполнены в едином стиле, целостность объявлений нарушена</t>
+  </si>
+  <si>
+    <t>Поверхности стен грязные, присутствуют разводы</t>
+  </si>
+  <si>
+    <t>Присутствуют посторонние предметы, мешают передвижению пациентов по лестницам, в коридорах</t>
+  </si>
+  <si>
+    <t>Корзины с бахилами грязные, в неудовлетворительном состоянии, переполнены</t>
+  </si>
+  <si>
+    <t>Грязный пол во входной группе. Наличие сезонного мусора (листья, реагенты), Ковры на входе грязные, с разводами грязи, присутствует реагент.</t>
+  </si>
+  <si>
+    <t>Наличие мусора, посторонних предметов (коробки, пакеты, и т.п.). Бахилы разбросаны на полу.</t>
+  </si>
+  <si>
+    <t>Стойка инфомата с подтёками, следы пыли на верхней крышке, многослойные следы от прикосновений к экрану.</t>
+  </si>
+  <si>
+    <t>Инфомат не включен в сеть, есть технологичные окна, пациент не может самостоятельно пользоваться инфоматом. Тачскрин не реагирует на прикосновение без усилий. Отсутствует бумага в инфомате, на экране инфомата есть сообщения о замене бумаги.</t>
+  </si>
+  <si>
+    <t>Бахиломаты (корзины) с пятнами, следами грязи, присутствуют подтеки.</t>
+  </si>
+  <si>
+    <t>Бахиломаты (корзины) с пятнами, следами грязи, присутствуют подтеки. Корзины с бахилами отсутствуют у каждого режимного кабинета, чистые бахилы отсутствуют в корзинах.</t>
+  </si>
+  <si>
+    <t>Бахиломаты в неисправном состоянии, не подключены к сети, смена кассет с чистыми бахилами производится несвоевременно</t>
+  </si>
+  <si>
+    <t>Нарушена целостность покрытия (стёрта краска, царапины). Емкости с трещинами. Используются уличные урны, вёдра, корзины для бумаг. При наличии таблички на корзине "чистые бахилы" или "грязные бахилы" - табличка грязная, с заломленными и нарушенными краями, пятна, подтеки, следы грязи и воды. Из корзин  торчат бахилы, вываливаются при выбрасывании.</t>
+  </si>
+  <si>
+    <t>Объявления напечатаны не по единому стандарту, расположены в местах, не предназначенных для этого (на стойках информации, в настенных карманах или буклетницах). Не подходят: рукописные, мятые, рваные/надорванные, грязные объявления, прикрепленные подручными средствами к столам, стенам, дверям, стеклам здания МО.</t>
+  </si>
+  <si>
+    <t>На стенах присутствуют потертости, трещины, повреждения, сколы краски и отслойка штукатурки. Присутствуют следы от стройматериалов (от гвоздей, шурупов и т.п.).</t>
+  </si>
+  <si>
+    <t>Стены грязные, присутствуют грязные разводы, пятна, подтеки, следы от снятых объявлений (скотч, клей).</t>
+  </si>
+  <si>
+    <t>Пломбы повреждены, приклеены неаккуратно на каждую техническую дверь - края пломбы не плотно прилегают к дверям, под последней пломбой присутствуют следы старой пломбы, ее фрагменты, а также следы клея/скотча.</t>
+  </si>
+  <si>
+    <t>Контрастные ленты на краевых ступенях внутренних лестниц отсутствуют,  плохо приклеены к поверхности</t>
+  </si>
+  <si>
+    <t>Провода от тач-панели, инфоматов, рециркуляторы, телевизоры, неаккуратно скрыты или не убраны в соответствующие ниши.</t>
+  </si>
+  <si>
+    <t>Целостность контрастных лент на краевых ступенях внутренних лестниц нарушена, есть повреждения</t>
+  </si>
+  <si>
+    <t>Контрастные ленты не размещены на краевых ступенях, целые, есть отслоения от поверхности ступеней, присутствуют потертости, есть повреждения.</t>
+  </si>
+  <si>
+    <t>Мебель грязная, с пятнами и загрязнениями. Мебель в неработоспособном и неисправном состоянии. Ножки мебели отсутствуют.</t>
+  </si>
+  <si>
+    <t>Мебель имеет следы экспулатации, на мебели есть трещины, сколы, повреждения краски и обивки.</t>
+  </si>
+  <si>
+    <t>Ручки без стержней, потекшие,  не пишущие. Кубарики с белыми чистыми листами для заметок не отсутствуют, не менее половины кубарика заполнено.</t>
+  </si>
+  <si>
+    <t>Табло не подключено к электросети. На нем не видны: актуальные дата, кабинеты и номера талонов пациентов. Не отображается актуальна ситуация: какой талон на приеме, какой следующий. Отсутствует актуальная информация.</t>
+  </si>
+  <si>
+    <t>Если МО подключила кабинет к электронной очереди и врач не использует электронную очередь для приглашения пациента в кабинет.</t>
+  </si>
+  <si>
+    <t>За стойкой информации отсутствует сотрудник МО, который может выполнить весь функционал, возложенный на стойку информации. В случае, если сотрудник МО отошел, то во время его отсутствия ожидание пациента помощи сотрудника МО не превышает 5 минут.</t>
+  </si>
+  <si>
+    <t>Тач-панель грязная, с пятнами, есть следы грязи, присутствуют подтеки.</t>
+  </si>
+  <si>
+    <t>Тач-панель не включена и в неработоспособном состоянии. На панели есть технологических окна, неактуальное время, не загружен опрос и сайт поликлиники с графиком приема врачей.</t>
+  </si>
+  <si>
+    <t>Грязный пол в зоне ресепшн. Есть сезонный мусор (листья, реагенты), Ковры на входе грязные, с разводами грязи, присутствует реагент.</t>
+  </si>
+  <si>
+    <t>В зоне ресепшн есть мусор, посторонние предметы (коробки, пакеты, и т.п.). Бахилы разбросаны по полу.</t>
+  </si>
+  <si>
+    <t>Вендинговые автоматы грязные, с пятнами, присутствуют следы грязи, присутствуют подтеки.</t>
+  </si>
+  <si>
+    <t>Вендинговые аппараты выключены и в неработоспособном состоянии. Нет возможности произвести оплату как наличным, так и безналичным способом. Вендинговый аппарат не выдает сдачу.</t>
+  </si>
+  <si>
+    <t>Грязный пол в зоне медицинского поста. Стойка медицинского поста с разводами, со следами грязи и пыли.</t>
+  </si>
+  <si>
+    <t>Есть мусор, посторонние предметы (коробки, пакеты, и т.п.) в зоне медицинского поста. Бахилы разбросаны по полу.</t>
+  </si>
+  <si>
+    <t>Пол в зоне комфортного пребывания с разводами и грязью. Присутствует грязь в углах. Диваны и столы в пыли и грязи.</t>
+  </si>
+  <si>
+    <t>В зоне комфортного пребывания присутствует мусор (использованные стаканчики, мятые лифлеты, бумажки, использованные маски/бахилы).</t>
+  </si>
+  <si>
+    <t>Навигация со следами повреждений (трещин и сколов), нечитаема, не в свободном доступе, огорожена мебелью. Неверно указаны кабинеты и маршрутизация к ним.</t>
+  </si>
+  <si>
+    <t>В зоне МГН грязно, есть следы грязи.</t>
+  </si>
+  <si>
+    <t>В зоне МГН присутствуют посторонние предметы (инвентарь сотрудников клининга, мебель, личные вещи, технические тележки, коробки и т.п.), разбросан мусор.</t>
+  </si>
+  <si>
+    <t>Сотрудник МО, который отсутствует на рабочем месте.</t>
+  </si>
+  <si>
+    <t>Урны для мусора не находятся в зоне видимости, крышка урны не закрыта,  из нее  торчит и вываливается мусор.</t>
+  </si>
+  <si>
+    <t>Пурифайеры и кулеры с пятнами, следами грязи, присутствуют подтеки.</t>
+  </si>
+  <si>
+    <t>При нажатии на кнопку/кран нельзя налить воды. Без нажатия вода просто так течет. Отсутствуют стаканы  (держатель для стаканов заполнен не менее четверти) и не расположены в держателе на кулере/пурифайере.</t>
+  </si>
+  <si>
+    <t>Телевизоры не подключены к сети, есть технологические окна (ошибка или иные надписи, имеющие информацию о неполадках). На телевизорах не демонстрируются информационные видеоролики с социальной рекламой, в ДГП не демонстрируются мультфильмы.</t>
+  </si>
+  <si>
+    <t>Детские столы и стулья в неисправном состоянии, детали не болтаются и закреплены, мебель неустойчива при нагрузке. Стулья неаккуратно расставлены только в том случае, если не используются детьми.</t>
+  </si>
+  <si>
+    <t>Детские столы и стулья имеют повреждения, царапины, трещины и сколы.</t>
+  </si>
+  <si>
+    <t>Столики в неисправном состоянии, не стоят устойчиво на поверхности, присутствуют загрязнения, под матрацем находится мусор и пыль.</t>
+  </si>
+  <si>
+    <t>Пеленальные столики со сколами/трещинами. Подстилка на пеленальной поверхности с повреждениями, молния не скрыта.</t>
+  </si>
+  <si>
+    <t>Полы грязные, есть лишние предметы (бахилы, талоны, коробки) и сезонные загрязнения (реагенты, вода). Коврики (при наличии) грязные.</t>
+  </si>
+  <si>
+    <t>Лестничные пролеты грязные, есть лишние предметы (бахилы, талоны, коробки) и сезонные загрязнения (реагенты, вода). Коврики (при наличии) грязные.</t>
+  </si>
+  <si>
+    <t>Присутствие мебели\иных предметов (коробки, тележки и пр.). Отсутствует свободное перемещение пациентов по лестницам и коридорам в МО.</t>
+  </si>
+  <si>
+    <t>Отсутствует отдельный вход в зону ОРВИ. Если зона не огорожена ширмой, перемещение сотрудников и пациентов между зонами отсутствует. Смешиваются потоки пациентов с признаками ОРВИ и без признаков ОРВИ.</t>
+  </si>
+  <si>
+    <t>Двери и проходы опечатаны, перекрыты, несвободный проход.</t>
+  </si>
+  <si>
+    <t>Пациентам не хватает места, нет возможности присесть и ожидать прием. Присутствуют пациенты, которые ожидают стоя у заполненных банкеток.</t>
+  </si>
+  <si>
+    <t>Присутствуют разводы грязи, пыли на стенах и на полу. Мусорные корзины несвоевременно освобождаются, мусор торчит из-под крышки.</t>
+  </si>
+  <si>
+    <t>График уборки не размещен во всех туалетных комнатах, не содержит необходимую информацию (ФИО ответственного, дату, время проведения уборки, отметка о проведенной уборке в виде подписи ответственного), дата на графике указана неактуальная, отметка об уборке не заполняется в запланированное графиком время после ее проведения.</t>
+  </si>
+  <si>
+    <t>На раковине присутствуют грязные разводы, пыль.</t>
+  </si>
+  <si>
+    <t>Раковина в неисправном (нерабочем) состоянии. На раковине присутствуют царапины, трещины, сколы.</t>
+  </si>
+  <si>
+    <t>На унитазе присутствуют грязные разводы, пятна, подтеки.</t>
+  </si>
+  <si>
+    <t>Унитаз в неисправном (рабочем) состоянии. На унитазе присутствуют царапины, трещины, сколы. При нажатии на кнопку слива вода не сливается.</t>
+  </si>
+  <si>
+    <t>Крючки отсутствуют и в  неисправном состоянии в каждой уборной.</t>
+  </si>
+  <si>
+    <t>Крючки не висят ровно, с повреждениями и царапинами.</t>
+  </si>
+  <si>
+    <t>В каждой уборной отсутствует держатель/диспансер с туалетной бумагой. С видимыми повреждениями.</t>
+  </si>
+  <si>
+    <t>В каждой уборной отсутствуют бумажные полотенца в диспансере/сушилка для рук в неработоспособном состоянии, не включена в розетку.</t>
+  </si>
+  <si>
+    <t>В каждой уборной отсутствует мыло, туалетная бумага и бумажные полотенца</t>
+  </si>
+  <si>
+    <t>Опорный поручень отсутствует в каждой уборной, и непрочно прикреплен к полу и стене.</t>
+  </si>
+  <si>
+    <t>Опорный поручень со следами сколов и вмятин. Цвет покрытия неоднородный (нержавейка или краска).</t>
+  </si>
+  <si>
+    <t>Крючки для верхней одежды и сумок отстствуют в каждой уборной для ММГ. Держатель для костылей не имеет ярко-желтое основание и информацию шрифтом Брайля. Не установлен рядом с унитазом. Есть видимые повреждения.</t>
+  </si>
+  <si>
+    <t>Крючки для верхней одежды, костылей и сумок отсутствуют в каждой уборной для ММГ, с повреждениями (сколы/трещины).</t>
+  </si>
+  <si>
+    <t>Знак безопасности "Желтый круг" не расположен на всех прозрачных вертикальных поверхностях (прозрачные двери, прозрачные перегородки), его целостность нарушена, присутствуют отслойки от поверхности, потертости. Знак не расположен на уровне глаз.</t>
+  </si>
+  <si>
+    <t>Кнопка вызова для ММГ отсутствует, не расположена во всех зонах ММГ, не работает, не подает сигнал на пост охраны. В туалетных комнатах кнопка расположена рядом с унитазом, повреждена, шнур отсутствует. При нажатии сотрудник поликлиники не реагирует.</t>
+  </si>
+  <si>
+    <t>Не работают все лампы и выключатели.</t>
+  </si>
+  <si>
+    <t>Нарушена целостность труб и отсутствие тепла.</t>
+  </si>
+  <si>
+    <t>В туалетах нет горячей и холодной воды, нет возможности настройки при сенсорном оборудовании крана.</t>
+  </si>
+  <si>
+    <t>Присутствуют потеки на трубах, есть следы протечки  кранов и труб.</t>
+  </si>
+  <si>
+    <t>В лифте грязные зеркала, стены, объявления с информацией грязные и с повреждениями. Следы многослойных отпечатков пальцев, кнопки в нерабочем состоянии, нет звукового сопровождение для ММГ в лифтах для их перевозки.</t>
+  </si>
+  <si>
+    <t>Лифт имеется, в нерабочем состоянии. В случае если в здании нет лифта, блок пропускаем.</t>
+  </si>
+  <si>
+    <t>Тепловая завеса в неисправном и неработоспособном состоянии. Присутствует пыль, загрязнения на тепловой завесе, подтеки, оставшиеся после влажной уборки.</t>
+  </si>
+  <si>
+    <t>Нарушением считается наличие повреждений. Присутствие ржавчины, царапин, сколов.</t>
+  </si>
+  <si>
+    <t>Кондиционеры в неисправном и неработоспособном состоянии. Присутствует пыль, загрязнения на кондиционерах, подтеки, оставшиеся после влажной уборки.</t>
+  </si>
+  <si>
+    <t>Нарушением считается наличие повреждений. Присутствует ржавчина, царапины, сколы.</t>
+  </si>
+  <si>
+    <t>Нарушенеием считается наличие жалюзи в неисправном состоянии, с неработающим механизмом поднятия и спуска, неисправным креплением, без отсутствующих блоков. На жалюзи есть видимые загрязнения, пыль, разводы и пятна.</t>
+  </si>
+  <si>
+    <t>На жалюзи присутствуют трещины, потертости, сколы.</t>
+  </si>
+  <si>
+    <t>Окна в неисправном состоянии. Присутствует пыль, загрязнения и подтеки, оставшиеся после влажной уборки, признаки незавершенных ремонтных работ (остатки клея, строительная пыль).</t>
   </si>
 </sst>
 </file>
@@ -1051,12 +1046,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E1:I1048576"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.5703125" customWidth="1"/>
+    <col min="1" max="1" width="73.85546875" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="69.7109375" customWidth="1"/>
     <col min="4" max="4" width="46.5703125" customWidth="1"/>
@@ -1098,642 +1093,642 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>47</v>
+        <v>137</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1741,863 +1736,863 @@
         <v>53</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2605,2015 +2600,2015 @@
         <v>53</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>103</v>
+        <v>165</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>179</v>
+        <v>87</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>153</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>180</v>
+        <v>106</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>171</v>
+        <v>112</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/app/database/insert_dicts/data/violations_dict.xlsx
+++ b/app/database/insert_dicts/data/violations_dict.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27816"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SimashevTI\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\timosii\my_administrator\app\database\insert_dicts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF28882B-6890-400C-A12F-DF67327C4748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C3D71D-462A-4168-B0D0-5F33552EB6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="new" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">new!$A$1:$J$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">new!$B$1:$K$111</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="200">
   <si>
     <t>violation_name</t>
   </si>
@@ -631,6 +631,9 @@
   </si>
   <si>
     <t>Окна в неисправном состоянии. Присутствует пыль, загрязнения и подтеки, оставшиеся после влажной уборки, признаки незавершенных ремонтных работ (остатки клея, строительная пыль).</t>
+  </si>
+  <si>
+    <t>violation_dict_id</t>
   </si>
 </sst>
 </file>
@@ -1042,71 +1045,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J111"/>
+  <dimension ref="A1:K111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="73.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="69.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" customWidth="1"/>
-    <col min="5" max="9" width="8.85546875" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="73.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="69.7109375" customWidth="1"/>
+    <col min="5" max="5" width="46.5703125" customWidth="1"/>
+    <col min="6" max="10" width="8.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F2" s="2" t="s">
         <v>38</v>
       </c>
@@ -1117,28 +1123,31 @@
         <v>38</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F3" s="2" t="s">
         <v>38</v>
       </c>
@@ -1149,28 +1158,31 @@
         <v>38</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F4" s="2" t="s">
         <v>38</v>
       </c>
@@ -1181,60 +1193,66 @@
         <v>38</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F6" s="2" t="s">
         <v>38</v>
       </c>
@@ -1248,25 +1266,28 @@
         <v>38</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F7" s="2" t="s">
         <v>38</v>
       </c>
@@ -1280,25 +1301,28 @@
         <v>38</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F8" s="2" t="s">
         <v>38</v>
       </c>
@@ -1309,60 +1333,66 @@
         <v>38</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F10" s="2" t="s">
         <v>38</v>
       </c>
@@ -1373,28 +1403,31 @@
         <v>38</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F11" s="2" t="s">
         <v>38</v>
       </c>
@@ -1405,28 +1438,31 @@
         <v>38</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F12" s="2" t="s">
         <v>38</v>
       </c>
@@ -1437,28 +1473,31 @@
         <v>38</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F13" s="2" t="s">
         <v>38</v>
       </c>
@@ -1469,28 +1508,31 @@
         <v>38</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>38</v>
       </c>
@@ -1501,28 +1543,31 @@
         <v>38</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>38</v>
       </c>
@@ -1533,60 +1578,66 @@
         <v>38</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>38</v>
       </c>
@@ -1597,28 +1648,31 @@
         <v>38</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>38</v>
       </c>
@@ -1629,28 +1683,31 @@
         <v>38</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>38</v>
       </c>
@@ -1661,60 +1718,66 @@
         <v>38</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>38</v>
       </c>
@@ -1725,92 +1788,101 @@
         <v>38</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>38</v>
       </c>
@@ -1821,60 +1893,66 @@
         <v>38</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F25" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>38</v>
       </c>
@@ -1885,60 +1963,66 @@
         <v>38</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>38</v>
       </c>
@@ -1949,28 +2033,31 @@
         <v>38</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>38</v>
       </c>
@@ -1981,28 +2068,31 @@
         <v>38</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>38</v>
       </c>
@@ -2013,28 +2103,31 @@
         <v>38</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>38</v>
       </c>
@@ -2045,28 +2138,31 @@
         <v>38</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>38</v>
       </c>
@@ -2077,28 +2173,31 @@
         <v>38</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>38</v>
       </c>
@@ -2109,28 +2208,31 @@
         <v>38</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>38</v>
       </c>
@@ -2141,28 +2243,31 @@
         <v>38</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>38</v>
       </c>
@@ -2173,60 +2278,66 @@
         <v>38</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K36" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>38</v>
       </c>
@@ -2237,28 +2348,31 @@
         <v>38</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>38</v>
       </c>
@@ -2269,28 +2383,31 @@
         <v>38</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>38</v>
       </c>
@@ -2301,28 +2418,31 @@
         <v>38</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>38</v>
       </c>
@@ -2333,92 +2453,101 @@
         <v>38</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F41" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K41" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>38</v>
       </c>
@@ -2429,28 +2558,31 @@
         <v>38</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>38</v>
       </c>
@@ -2461,28 +2593,31 @@
         <v>38</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K44" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>38</v>
       </c>
@@ -2493,28 +2628,31 @@
         <v>38</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>38</v>
       </c>
@@ -2525,60 +2663,66 @@
         <v>38</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K46" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>38</v>
       </c>
@@ -2589,60 +2733,66 @@
         <v>38</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>38</v>
       </c>
@@ -2653,28 +2803,31 @@
         <v>38</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>38</v>
       </c>
@@ -2688,25 +2841,28 @@
         <v>38</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>38</v>
       </c>
@@ -2717,28 +2873,31 @@
         <v>38</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J52" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K52" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>38</v>
       </c>
@@ -2752,57 +2911,63 @@
         <v>38</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F54" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J54" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K54" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>38</v>
       </c>
@@ -2813,28 +2978,31 @@
         <v>38</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F56" s="2" t="s">
         <v>38</v>
       </c>
@@ -2845,28 +3013,31 @@
         <v>38</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J56" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K56" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F57" s="2" t="s">
         <v>38</v>
       </c>
@@ -2877,28 +3048,31 @@
         <v>38</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>38</v>
       </c>
@@ -2909,28 +3083,31 @@
         <v>38</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J58" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K58" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>38</v>
       </c>
@@ -2941,28 +3118,31 @@
         <v>38</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>38</v>
       </c>
@@ -2973,28 +3153,31 @@
         <v>38</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>38</v>
       </c>
@@ -3005,92 +3188,101 @@
         <v>38</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="E62" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F62" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J62" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K62" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J63" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K63" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>38</v>
       </c>
@@ -3101,60 +3293,66 @@
         <v>38</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J64" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K64" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J65" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K65" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="E66" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>38</v>
       </c>
@@ -3168,25 +3366,28 @@
         <v>38</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>38</v>
       </c>
@@ -3200,25 +3401,28 @@
         <v>38</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F68" s="2" t="s">
         <v>38</v>
       </c>
@@ -3229,28 +3433,31 @@
         <v>38</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>38</v>
       </c>
@@ -3261,28 +3468,31 @@
         <v>38</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>38</v>
       </c>
@@ -3293,28 +3503,31 @@
         <v>38</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J70" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K70" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>38</v>
       </c>
@@ -3325,28 +3538,31 @@
         <v>38</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>38</v>
       </c>
@@ -3357,28 +3573,31 @@
         <v>38</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J72" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K72" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>38</v>
       </c>
@@ -3389,28 +3608,31 @@
         <v>38</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J73" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K73" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>38</v>
       </c>
@@ -3421,28 +3643,31 @@
         <v>38</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J74" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K74" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>38</v>
       </c>
@@ -3453,28 +3678,31 @@
         <v>38</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>38</v>
       </c>
@@ -3485,28 +3713,31 @@
         <v>38</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J76" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K76" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>38</v>
       </c>
@@ -3517,60 +3748,66 @@
         <v>38</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J78" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K78" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F79" s="2" t="s">
         <v>38</v>
       </c>
@@ -3581,28 +3818,31 @@
         <v>38</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J79" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K79" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>38</v>
       </c>
@@ -3613,28 +3853,31 @@
         <v>38</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J80" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K80" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="E81" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>38</v>
       </c>
@@ -3645,92 +3888,101 @@
         <v>38</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F82" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="E83" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>38</v>
       </c>
@@ -3741,28 +3993,31 @@
         <v>38</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="D85" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>38</v>
       </c>
@@ -3773,60 +4028,66 @@
         <v>38</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J85" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K85" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F86" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J86" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K86" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="E87" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>38</v>
       </c>
@@ -3837,28 +4098,31 @@
         <v>38</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J87" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K87" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="E88" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>38</v>
       </c>
@@ -3869,28 +4133,31 @@
         <v>38</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J88" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K88" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="C89" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="E89" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>38</v>
       </c>
@@ -3901,28 +4168,31 @@
         <v>38</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J89" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K89" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="E90" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>38</v>
       </c>
@@ -3933,28 +4203,31 @@
         <v>38</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="E91" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>38</v>
       </c>
@@ -3965,28 +4238,31 @@
         <v>38</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J91" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K91" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="E92" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F92" s="2" t="s">
         <v>38</v>
       </c>
@@ -3997,28 +4273,31 @@
         <v>38</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J92" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K92" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="E93" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>38</v>
       </c>
@@ -4029,28 +4308,31 @@
         <v>38</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J93" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K93" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="C94" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="E94" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F94" s="2" t="s">
         <v>38</v>
       </c>
@@ -4061,60 +4343,66 @@
         <v>38</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J94" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K94" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="E95" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F95" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J95" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K95" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="E96" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F96" s="2" t="s">
         <v>38</v>
       </c>
@@ -4125,28 +4413,31 @@
         <v>38</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="D97" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F97" s="2" t="s">
         <v>38</v>
       </c>
@@ -4157,28 +4448,31 @@
         <v>38</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="C98" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="E98" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>38</v>
       </c>
@@ -4189,92 +4483,101 @@
         <v>38</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="C99" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="E99" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F99" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J99" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K99" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F100" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J100" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K100" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="C101" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="E101" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F101" s="2" t="s">
         <v>38</v>
       </c>
@@ -4285,28 +4588,31 @@
         <v>38</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>101</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="E102" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F102" s="2" t="s">
         <v>38</v>
       </c>
@@ -4320,57 +4626,63 @@
         <v>38</v>
       </c>
       <c r="J102" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K102" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>102</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="C103" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="E103" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F103" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K103" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>103</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="C104" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="D104" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="E104" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F104" s="2" t="s">
         <v>38</v>
       </c>
@@ -4381,28 +4693,31 @@
         <v>38</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J104" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K104" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>104</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="C105" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="E105" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F105" s="2" t="s">
         <v>38</v>
       </c>
@@ -4413,28 +4728,31 @@
         <v>38</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J105" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K105" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>105</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="C106" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F106" s="2" t="s">
         <v>38</v>
       </c>
@@ -4445,60 +4763,66 @@
         <v>38</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J106" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K106" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>106</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="C107" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="D107" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="E107" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F107" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J107" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K107" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>107</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="D108" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="E108" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F108" s="2" t="s">
         <v>38</v>
       </c>
@@ -4509,60 +4833,66 @@
         <v>38</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J108" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K108" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>108</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="E109" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F109" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J109" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K109" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>109</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="D110" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="E110" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>38</v>
       </c>
@@ -4573,46 +4903,52 @@
         <v>38</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J110" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K110" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>110</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="E111" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F111" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J111" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K111" s="2" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J111" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:K111" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/app/database/insert_dicts/data/violations_dict.xlsx
+++ b/app/database/insert_dicts/data/violations_dict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27820"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\timosii\my_administrator\app\database\insert_dicts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C3D71D-462A-4168-B0D0-5F33552EB6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFA4CCA-9C9C-48E6-A415-EF4FC1BC69CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="1" r:id="rId1"/>
@@ -348,9 +348,6 @@
     <t>Присутствуют видимые течи из систем водоснабжения и водоотведения</t>
   </si>
   <si>
-    <t>Лифтгрязные (при наличии)</t>
-  </si>
-  <si>
     <t>Лифт в неисправном состоянии (при наличии)</t>
   </si>
   <si>
@@ -634,6 +631,9 @@
   </si>
   <si>
     <t>violation_dict_id</t>
+  </si>
+  <si>
+    <t>Лифт грязный (при наличии)</t>
   </si>
 </sst>
 </file>
@@ -1048,8 +1048,8 @@
   <dimension ref="A1:K111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,7 +1064,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>38</v>
@@ -1146,7 +1146,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>38</v>
@@ -1181,7 +1181,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>38</v>
@@ -1216,7 +1216,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>39</v>
@@ -1251,7 +1251,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>38</v>
@@ -1286,7 +1286,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>38</v>
@@ -1312,7 +1312,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
@@ -1321,7 +1321,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>38</v>
@@ -1382,7 +1382,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
@@ -1391,7 +1391,7 @@
         <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>38</v>
@@ -1417,7 +1417,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
@@ -1426,7 +1426,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>38</v>
@@ -1461,7 +1461,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>38</v>
@@ -1496,7 +1496,7 @@
         <v>18</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>38</v>
@@ -1531,7 +1531,7 @@
         <v>18</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>38</v>
@@ -1566,7 +1566,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>38</v>
@@ -1601,7 +1601,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>39</v>
@@ -1636,7 +1636,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>38</v>
@@ -1671,7 +1671,7 @@
         <v>18</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>38</v>
@@ -1697,7 +1697,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>20</v>
@@ -1706,7 +1706,7 @@
         <v>14</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>38</v>
@@ -1776,7 +1776,7 @@
         <v>13</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>38</v>
@@ -1811,7 +1811,7 @@
         <v>23</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>39</v>
@@ -1872,7 +1872,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>20</v>
@@ -1881,7 +1881,7 @@
         <v>16</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>38</v>
@@ -1916,7 +1916,7 @@
         <v>24</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>39</v>
@@ -1951,7 +1951,7 @@
         <v>11</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>38</v>
@@ -1986,7 +1986,7 @@
         <v>13</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>39</v>
@@ -2021,7 +2021,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>38</v>
@@ -2056,7 +2056,7 @@
         <v>11</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>38</v>
@@ -2082,7 +2082,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>20</v>
@@ -2091,7 +2091,7 @@
         <v>11</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>38</v>
@@ -2126,7 +2126,7 @@
         <v>18</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>38</v>
@@ -2161,7 +2161,7 @@
         <v>18</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>38</v>
@@ -2196,7 +2196,7 @@
         <v>18</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>38</v>
@@ -2231,7 +2231,7 @@
         <v>11</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>38</v>
@@ -2266,7 +2266,7 @@
         <v>11</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>38</v>
@@ -2301,7 +2301,7 @@
         <v>24</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>39</v>
@@ -2336,7 +2336,7 @@
         <v>11</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>38</v>
@@ -2371,7 +2371,7 @@
         <v>11</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>38</v>
@@ -2406,7 +2406,7 @@
         <v>11</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>38</v>
@@ -2441,7 +2441,7 @@
         <v>11</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>38</v>
@@ -2476,7 +2476,7 @@
         <v>13</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>39</v>
@@ -2511,7 +2511,7 @@
         <v>13</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>39</v>
@@ -2546,7 +2546,7 @@
         <v>18</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>38</v>
@@ -2581,7 +2581,7 @@
         <v>18</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>38</v>
@@ -2616,7 +2616,7 @@
         <v>11</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>38</v>
@@ -2651,7 +2651,7 @@
         <v>18</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>38</v>
@@ -2721,7 +2721,7 @@
         <v>13</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>38</v>
@@ -2756,7 +2756,7 @@
         <v>23</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>39</v>
@@ -2791,7 +2791,7 @@
         <v>11</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>38</v>
@@ -2826,7 +2826,7 @@
         <v>13</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>38</v>
@@ -2852,7 +2852,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>27</v>
@@ -2861,7 +2861,7 @@
         <v>16</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>38</v>
@@ -2896,7 +2896,7 @@
         <v>11</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>38</v>
@@ -2931,7 +2931,7 @@
         <v>13</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>39</v>
@@ -2957,7 +2957,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>27</v>
@@ -2966,7 +2966,7 @@
         <v>11</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>38</v>
@@ -3001,7 +3001,7 @@
         <v>18</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>38</v>
@@ -3036,7 +3036,7 @@
         <v>18</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>38</v>
@@ -3071,7 +3071,7 @@
         <v>18</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>38</v>
@@ -3106,7 +3106,7 @@
         <v>11</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>38</v>
@@ -3141,7 +3141,7 @@
         <v>11</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>38</v>
@@ -3167,7 +3167,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>29</v>
@@ -3176,7 +3176,7 @@
         <v>18</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>38</v>
@@ -3211,7 +3211,7 @@
         <v>16</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>39</v>
@@ -3246,7 +3246,7 @@
         <v>23</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>39</v>
@@ -3281,7 +3281,7 @@
         <v>18</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>38</v>
@@ -3316,7 +3316,7 @@
         <v>23</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>39</v>
@@ -3351,7 +3351,7 @@
         <v>11</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>38</v>
@@ -3386,7 +3386,7 @@
         <v>13</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>38</v>
@@ -3412,7 +3412,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>29</v>
@@ -3421,7 +3421,7 @@
         <v>11</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>38</v>
@@ -3447,7 +3447,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>29</v>
@@ -3456,7 +3456,7 @@
         <v>11</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>38</v>
@@ -3491,7 +3491,7 @@
         <v>11</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>38</v>
@@ -3526,7 +3526,7 @@
         <v>18</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>38</v>
@@ -3561,7 +3561,7 @@
         <v>18</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>38</v>
@@ -3596,7 +3596,7 @@
         <v>11</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>38</v>
@@ -3631,7 +3631,7 @@
         <v>11</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>38</v>
@@ -3666,7 +3666,7 @@
         <v>11</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>38</v>
@@ -3701,7 +3701,7 @@
         <v>18</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>38</v>
@@ -3736,7 +3736,7 @@
         <v>11</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>38</v>
@@ -3771,7 +3771,7 @@
         <v>18</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>39</v>
@@ -3806,7 +3806,7 @@
         <v>18</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>38</v>
@@ -3841,7 +3841,7 @@
         <v>18</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>38</v>
@@ -3876,7 +3876,7 @@
         <v>18</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>38</v>
@@ -3911,7 +3911,7 @@
         <v>14</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>39</v>
@@ -3946,7 +3946,7 @@
         <v>14</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>39</v>
@@ -3981,7 +3981,7 @@
         <v>11</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>38</v>
@@ -4016,7 +4016,7 @@
         <v>18</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>38</v>
@@ -4051,7 +4051,7 @@
         <v>18</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>39</v>
@@ -4086,7 +4086,7 @@
         <v>18</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>38</v>
@@ -4121,7 +4121,7 @@
         <v>18</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>38</v>
@@ -4156,7 +4156,7 @@
         <v>18</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>38</v>
@@ -4182,7 +4182,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>30</v>
@@ -4191,7 +4191,7 @@
         <v>11</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>38</v>
@@ -4226,7 +4226,7 @@
         <v>18</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>38</v>
@@ -4252,7 +4252,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>31</v>
@@ -4287,7 +4287,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>31</v>
@@ -4296,7 +4296,7 @@
         <v>32</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>38</v>
@@ -4331,7 +4331,7 @@
         <v>32</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>38</v>
@@ -4366,7 +4366,7 @@
         <v>32</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>39</v>
@@ -4401,7 +4401,7 @@
         <v>32</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>38</v>
@@ -4436,7 +4436,7 @@
         <v>11</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>38</v>
@@ -4471,7 +4471,7 @@
         <v>18</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>38</v>
@@ -4506,7 +4506,7 @@
         <v>18</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>39</v>
@@ -4541,7 +4541,7 @@
         <v>18</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>39</v>
@@ -4576,7 +4576,7 @@
         <v>18</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>38</v>
@@ -4602,7 +4602,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>104</v>
+        <v>199</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>34</v>
@@ -4611,7 +4611,7 @@
         <v>11</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>38</v>
@@ -4637,7 +4637,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>34</v>
@@ -4646,7 +4646,7 @@
         <v>13</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>39</v>
@@ -4672,7 +4672,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>34</v>
@@ -4681,7 +4681,7 @@
         <v>11</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>38</v>
@@ -4707,7 +4707,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>34</v>
@@ -4716,7 +4716,7 @@
         <v>13</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>38</v>
@@ -4742,7 +4742,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>34</v>
@@ -4751,7 +4751,7 @@
         <v>11</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>38</v>
@@ -4777,7 +4777,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>34</v>
@@ -4786,7 +4786,7 @@
         <v>13</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>39</v>
@@ -4812,7 +4812,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>35</v>
@@ -4821,7 +4821,7 @@
         <v>11</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>38</v>
@@ -4847,7 +4847,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>35</v>
@@ -4856,7 +4856,7 @@
         <v>18</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>39</v>
@@ -4882,7 +4882,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>35</v>
@@ -4891,7 +4891,7 @@
         <v>11</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>38</v>
@@ -4917,7 +4917,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>35</v>
